--- a/APM files/122113797/122113797 IMPORT 1 BMC Cloud Property.xlsx
+++ b/APM files/122113797/122113797 IMPORT 1 BMC Cloud Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\APM files\122113797\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF34B83-0705-4E68-A2AB-715060A0F76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA488A3B-B002-4C2F-9B04-520A4B5DB413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="5730" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="4065" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="45">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -55,16 +55,10 @@
     <t>Commissions Charged for Cancellations</t>
   </si>
   <si>
-    <t>Default Margin Percent</t>
-  </si>
-  <si>
     <t>Target Business Model for Standalone</t>
   </si>
   <si>
     <t>Target Business Model for Corporate</t>
-  </si>
-  <si>
-    <t>Target Business Model for Package</t>
   </si>
   <si>
     <t>99900047</t>
@@ -528,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,13 +540,11 @@
     <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,622 +584,538 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B2">
+        <v>122515159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>122515159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>122515159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B4">
+        <v>122515159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2">
-        <v>0.15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>122515159</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B5">
+        <v>122515159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3">
-        <v>0.15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>122515159</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B6">
+        <v>122515159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4">
-        <v>0.15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>122515159</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B7">
+        <v>122515159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5">
-        <v>0.15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>122515159</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B8">
+        <v>122515159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6">
-        <v>0.15</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>122515159</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B9">
+        <v>122515159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7">
-        <v>0.15</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>122515159</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B10">
+        <v>122515159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8">
-        <v>0.15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
-        <v>122515159</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B11">
+        <v>122515159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9">
-        <v>0.15</v>
-      </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
-        <v>122515159</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B12">
+        <v>122515159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10">
-        <v>0.15</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
-        <v>122515159</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B13">
+        <v>122515159</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11">
-        <v>0.15</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
-        <v>122515159</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B14">
+        <v>122515159</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12">
-        <v>0.15</v>
-      </c>
-      <c r="M12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>122515159</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13">
-        <v>0.15</v>
-      </c>
-      <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>122515159</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14">
-        <v>0.15</v>
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
